--- a/results/kpiBat(AutoRecovered).xlsx
+++ b/results/kpiBat(AutoRecovered).xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\research\repos\franciscolemos\csp03\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE49AE11-2E90-4E14-AD38-F18D0ECBF533}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616BCD49-024B-4237-940C-8BD528801A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="kpiBat" sheetId="1" r:id="rId1"/>
-    <sheet name="scen1 900, 960 (...) 1200 min." sheetId="2" r:id="rId2"/>
-    <sheet name="scen2 900, 960 (...) 1200 min." sheetId="3" r:id="rId3"/>
+    <sheet name="kpiBat" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="scen1 900, 960 (...) 1200 min." sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="scen1.1 901, 961 (...) 1261 m." sheetId="4" r:id="rId3"/>
+    <sheet name="scen2.1 901, 961 (...) 1261 m." sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kpiBat!$A$1:$W$227</definedName>
   </definedNames>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="208">
   <si>
     <t>MAX_DELAY</t>
   </si>
@@ -530,19 +534,138 @@
   <si>
     <t>20210313_2331</t>
   </si>
+  <si>
+    <t>newFlight</t>
+  </si>
+  <si>
+    <t>taxiFlight</t>
+  </si>
+  <si>
+    <t>New flight</t>
+  </si>
+  <si>
+    <t>Taxi Flight</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> newFlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> taxiFlight</t>
+  </si>
+  <si>
+    <t>20210325_1900</t>
+  </si>
+  <si>
+    <t>20210325_1901</t>
+  </si>
+  <si>
+    <t>20210325_1903</t>
+  </si>
+  <si>
+    <t>20210325_1907</t>
+  </si>
+  <si>
+    <t>20210325_1908</t>
+  </si>
+  <si>
+    <t>20210325_1909</t>
+  </si>
+  <si>
+    <t>20210325_1914</t>
+  </si>
+  <si>
+    <t>20210325_1915</t>
+  </si>
+  <si>
+    <t>20210325_1916</t>
+  </si>
+  <si>
+    <t>20210325_1910</t>
+  </si>
+  <si>
+    <t>20210325_1917</t>
+  </si>
+  <si>
+    <t>20210325_1918</t>
+  </si>
+  <si>
+    <t>20210325_1919</t>
+  </si>
+  <si>
+    <t>20210325_1922</t>
+  </si>
+  <si>
+    <t>20210325_1923</t>
+  </si>
+  <si>
+    <t>20210325_1924</t>
+  </si>
+  <si>
+    <t>    STEP_DOMAIN = 60 #domain step</t>
+  </si>
+  <si>
+    <t>    START_UPPER = 3.00000000000000 * 10**12 #upper bound</t>
+  </si>
+  <si>
+    <t>    STEP_UPPER = 1.0000000000000 * 10**11 #decrement step</t>
+  </si>
+  <si>
+    <t>    START_LOWER = 4.000000000000000 * 10**4 #lower bound</t>
+  </si>
+  <si>
+    <t>    STEP_LOWER = 1.0000000000000000 * 10**4  #increment step</t>
+  </si>
+  <si>
+    <t>(size 2)</t>
+  </si>
+  <si>
+    <t>Time window (max. delay values) 900,960,1020,1080,1140,1200, 1260 (size 7)</t>
+  </si>
+  <si>
+    <t>for each of these values I have tested 4 combinations regarding New Flights (yes/no) and Taxi Flight(yes/no) (size 4)</t>
+  </si>
+  <si>
+    <t>    STEP_UPPER = 2.0000000000000 * 10**11 #decrement step</t>
+  </si>
+  <si>
+    <t>    STEP_LOWER = 2.0000000000000000 * 10**4  #increment step</t>
+  </si>
+  <si>
+    <t>Time window (max. delay values) 900,960,1020,1080,1140,1200, 1260</t>
+  </si>
+  <si>
+    <t>for each of these values I have tested 4 combinations regarding New Flights (yes/no) and Taxi Flight(yes/no)</t>
+  </si>
+  <si>
+    <t>scenario 2.1: the pincer closing faster</t>
+  </si>
+  <si>
+    <t>scenario 1.1:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +796,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -859,7 +989,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -974,6 +1104,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1021,19 +1265,41 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="8" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="8" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="15" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="15" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1092,6 +1358,468 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="kpiBat"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="770">
+          <cell r="T770">
+            <v>213290.75</v>
+          </cell>
+          <cell r="U770">
+            <v>20.18963552</v>
+          </cell>
+          <cell r="V770">
+            <v>1260</v>
+          </cell>
+          <cell r="W770">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="771">
+          <cell r="T771">
+            <v>868443.25</v>
+          </cell>
+          <cell r="U771">
+            <v>20.93473363</v>
+          </cell>
+          <cell r="V771">
+            <v>1500</v>
+          </cell>
+          <cell r="W771">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="772">
+          <cell r="T772">
+            <v>1156623.45</v>
+          </cell>
+          <cell r="U772">
+            <v>21.206755879999999</v>
+          </cell>
+          <cell r="V772">
+            <v>1500</v>
+          </cell>
+          <cell r="W772">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="773">
+          <cell r="T773">
+            <v>1368313</v>
+          </cell>
+          <cell r="U773">
+            <v>21.172584059999998</v>
+          </cell>
+          <cell r="V773">
+            <v>1500</v>
+          </cell>
+          <cell r="W773">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="774">
+          <cell r="T774">
+            <v>1877251.15</v>
+          </cell>
+          <cell r="U774">
+            <v>18.279368640000001</v>
+          </cell>
+          <cell r="V774">
+            <v>1500</v>
+          </cell>
+          <cell r="W774">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="775">
+          <cell r="T775">
+            <v>204762.3</v>
+          </cell>
+          <cell r="U775">
+            <v>21.5506134</v>
+          </cell>
+          <cell r="V775">
+            <v>1260</v>
+          </cell>
+          <cell r="W775">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="776">
+          <cell r="T776">
+            <v>31352.85</v>
+          </cell>
+          <cell r="U776">
+            <v>36.693900110000001</v>
+          </cell>
+          <cell r="V776">
+            <v>2580</v>
+          </cell>
+          <cell r="W776">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="777">
+          <cell r="T777">
+            <v>35965.75</v>
+          </cell>
+          <cell r="U777">
+            <v>35.814194440000001</v>
+          </cell>
+          <cell r="V777">
+            <v>2580</v>
+          </cell>
+          <cell r="W777">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="778">
+          <cell r="T778">
+            <v>449950.65</v>
+          </cell>
+          <cell r="U778">
+            <v>157.72946930000001</v>
+          </cell>
+          <cell r="V778">
+            <v>24180</v>
+          </cell>
+          <cell r="W778">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="779">
+          <cell r="T779">
+            <v>517139.8</v>
+          </cell>
+          <cell r="U779">
+            <v>158.97339389999999</v>
+          </cell>
+          <cell r="V779">
+            <v>24180</v>
+          </cell>
+          <cell r="W779">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="780">
+          <cell r="T780">
+            <v>1901354.9</v>
+          </cell>
+          <cell r="U780">
+            <v>338.98156089999998</v>
+          </cell>
+          <cell r="V780">
+            <v>0</v>
+          </cell>
+          <cell r="W780">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="781">
+          <cell r="T781">
+            <v>2610245.1</v>
+          </cell>
+          <cell r="U781">
+            <v>410.39168410000002</v>
+          </cell>
+          <cell r="V781">
+            <v>0</v>
+          </cell>
+          <cell r="W781">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="782">
+          <cell r="T782">
+            <v>2480018.9</v>
+          </cell>
+          <cell r="U782">
+            <v>453.8524046</v>
+          </cell>
+          <cell r="V782">
+            <v>42240</v>
+          </cell>
+          <cell r="W782">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="783">
+          <cell r="T783">
+            <v>19448551.899999999</v>
+          </cell>
+          <cell r="U783">
+            <v>866.25926779999998</v>
+          </cell>
+          <cell r="V783">
+            <v>29760</v>
+          </cell>
+          <cell r="W783">
+            <v>103</v>
+          </cell>
+        </row>
+        <row r="784">
+          <cell r="T784">
+            <v>16582880.5</v>
+          </cell>
+          <cell r="U784">
+            <v>878.8267257</v>
+          </cell>
+          <cell r="V784">
+            <v>19980</v>
+          </cell>
+          <cell r="W784">
+            <v>94</v>
+          </cell>
+        </row>
+        <row r="785">
+          <cell r="T785">
+            <v>5525406.2000000002</v>
+          </cell>
+          <cell r="U785">
+            <v>619.45718309999995</v>
+          </cell>
+          <cell r="V785">
+            <v>56460</v>
+          </cell>
+          <cell r="W785">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="786">
+          <cell r="T786">
+            <v>20929492.199999999</v>
+          </cell>
+          <cell r="U786">
+            <v>904.22240569999997</v>
+          </cell>
+          <cell r="V786">
+            <v>22200</v>
+          </cell>
+          <cell r="W786">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="787">
+          <cell r="T787">
+            <v>19678203.399999999</v>
+          </cell>
+          <cell r="U787">
+            <v>979.07871269999998</v>
+          </cell>
+          <cell r="V787">
+            <v>19980</v>
+          </cell>
+          <cell r="W787">
+            <v>94</v>
+          </cell>
+        </row>
+        <row r="788">
+          <cell r="T788">
+            <v>17678534.149999999</v>
+          </cell>
+          <cell r="U788">
+            <v>1005.772241</v>
+          </cell>
+          <cell r="V788">
+            <v>22200</v>
+          </cell>
+          <cell r="W788">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="789">
+          <cell r="T789">
+            <v>25337233.199999999</v>
+          </cell>
+          <cell r="U789">
+            <v>991.49514680000004</v>
+          </cell>
+          <cell r="V789">
+            <v>29880</v>
+          </cell>
+          <cell r="W789">
+            <v>109</v>
+          </cell>
+        </row>
+        <row r="790">
+          <cell r="T790">
+            <v>20380647.75</v>
+          </cell>
+          <cell r="U790">
+            <v>1166.2682589999999</v>
+          </cell>
+          <cell r="V790">
+            <v>37680</v>
+          </cell>
+          <cell r="W790">
+            <v>124</v>
+          </cell>
+        </row>
+        <row r="791">
+          <cell r="T791">
+            <v>24446483.800000001</v>
+          </cell>
+          <cell r="U791">
+            <v>1177.0850459999999</v>
+          </cell>
+          <cell r="V791">
+            <v>37680</v>
+          </cell>
+          <cell r="W791">
+            <v>124</v>
+          </cell>
+        </row>
+        <row r="792">
+          <cell r="T792">
+            <v>36677402.399999999</v>
+          </cell>
+          <cell r="U792">
+            <v>1253.6252469999999</v>
+          </cell>
+          <cell r="V792">
+            <v>29040</v>
+          </cell>
+          <cell r="W792">
+            <v>208</v>
+          </cell>
+        </row>
+        <row r="793">
+          <cell r="T793">
+            <v>15999714.5</v>
+          </cell>
+          <cell r="U793">
+            <v>1319.7126699999999</v>
+          </cell>
+          <cell r="V793">
+            <v>128700</v>
+          </cell>
+          <cell r="W793">
+            <v>96</v>
+          </cell>
+        </row>
+        <row r="794">
+          <cell r="T794">
+            <v>44735968.799999997</v>
+          </cell>
+          <cell r="U794">
+            <v>1302.557589</v>
+          </cell>
+          <cell r="V794">
+            <v>29040</v>
+          </cell>
+          <cell r="W794">
+            <v>208</v>
+          </cell>
+        </row>
+        <row r="795">
+          <cell r="T795">
+            <v>22324200.600000001</v>
+          </cell>
+          <cell r="U795">
+            <v>1343.4568549999999</v>
+          </cell>
+          <cell r="V795">
+            <v>117120</v>
+          </cell>
+          <cell r="W795">
+            <v>112</v>
+          </cell>
+        </row>
+        <row r="796">
+          <cell r="T796">
+            <v>19196691.899999999</v>
+          </cell>
+          <cell r="U796">
+            <v>1355.1785030000001</v>
+          </cell>
+          <cell r="V796">
+            <v>128700</v>
+          </cell>
+          <cell r="W796">
+            <v>96</v>
+          </cell>
+        </row>
+        <row r="797">
+          <cell r="T797">
+            <v>19181080.399999999</v>
+          </cell>
+          <cell r="U797">
+            <v>1373.5743219999999</v>
+          </cell>
+          <cell r="V797">
+            <v>117120</v>
+          </cell>
+          <cell r="W797">
+            <v>112</v>
+          </cell>
+        </row>
+        <row r="798">
+          <cell r="T798">
+            <v>118434483.7</v>
+          </cell>
+          <cell r="U798">
+            <v>1512.8554959999999</v>
+          </cell>
+          <cell r="V798">
+            <v>64740</v>
+          </cell>
+          <cell r="W798">
+            <v>357</v>
+          </cell>
+        </row>
+        <row r="799">
+          <cell r="T799">
+            <v>95690750.900000006</v>
+          </cell>
+          <cell r="U799">
+            <v>1530.373834</v>
+          </cell>
+          <cell r="V799">
+            <v>64740</v>
+          </cell>
+          <cell r="W799">
+            <v>357</v>
+          </cell>
+        </row>
+        <row r="800">
+          <cell r="T800">
+            <v>119094035</v>
+          </cell>
+          <cell r="U800">
+            <v>1534.0385879999999</v>
+          </cell>
+          <cell r="V800">
+            <v>68880</v>
+          </cell>
+          <cell r="W800">
+            <v>389</v>
+          </cell>
+        </row>
+        <row r="801">
+          <cell r="T801">
+            <v>95974247.900000006</v>
+          </cell>
+          <cell r="U801">
+            <v>1577.8511559999999</v>
+          </cell>
+          <cell r="V801">
+            <v>62040</v>
+          </cell>
+          <cell r="W801">
+            <v>359</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1391,11 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W228"/>
+  <dimension ref="A1:Y257"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U228" sqref="U228"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,7 +2130,7 @@
     <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,8 +2200,14 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1020</v>
       </c>
@@ -1545,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1020</v>
       </c>
@@ -1616,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1020</v>
       </c>
@@ -1687,7 +2420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1020</v>
       </c>
@@ -1758,7 +2491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1020</v>
       </c>
@@ -1829,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1020</v>
       </c>
@@ -1900,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1020</v>
       </c>
@@ -1971,7 +2704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1020</v>
       </c>
@@ -2042,7 +2775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1020</v>
       </c>
@@ -2113,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1020</v>
       </c>
@@ -2184,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1020</v>
       </c>
@@ -2255,7 +2988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1020</v>
       </c>
@@ -2326,7 +3059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1020</v>
       </c>
@@ -2397,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1020</v>
       </c>
@@ -2468,7 +3201,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1020</v>
       </c>
@@ -2539,7 +3272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1020</v>
       </c>
@@ -2610,7 +3343,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1020</v>
       </c>
@@ -2681,7 +3414,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1020</v>
       </c>
@@ -2752,7 +3485,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1020</v>
       </c>
@@ -2823,7 +3556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -2894,7 +3627,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -2965,7 +3698,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1020</v>
       </c>
@@ -3036,7 +3769,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1020</v>
       </c>
@@ -3107,7 +3840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1020</v>
       </c>
@@ -3178,7 +3911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1020</v>
       </c>
@@ -3249,7 +3982,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1020</v>
       </c>
@@ -3320,7 +4053,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1020</v>
       </c>
@@ -3391,7 +4124,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1020</v>
       </c>
@@ -3462,7 +4195,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1020</v>
       </c>
@@ -3533,7 +4266,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1020</v>
       </c>
@@ -3604,7 +4337,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1020</v>
       </c>
@@ -3675,7 +4408,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1020</v>
       </c>
@@ -3746,7 +4479,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1020</v>
       </c>
@@ -3817,7 +4550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1020</v>
       </c>
@@ -3888,7 +4621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1020</v>
       </c>
@@ -3959,7 +4692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1020</v>
       </c>
@@ -4030,7 +4763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1020</v>
       </c>
@@ -4101,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1020</v>
       </c>
@@ -4172,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1020</v>
       </c>
@@ -4243,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1020</v>
       </c>
@@ -4314,7 +5047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1020</v>
       </c>
@@ -4385,7 +5118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1020</v>
       </c>
@@ -4456,7 +5189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1020</v>
       </c>
@@ -4527,7 +5260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1020</v>
       </c>
@@ -4598,7 +5331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1020</v>
       </c>
@@ -4669,7 +5402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1020</v>
       </c>
@@ -4740,7 +5473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1020</v>
       </c>
@@ -4811,7 +5544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1020</v>
       </c>
@@ -4882,7 +5615,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1020</v>
       </c>
@@ -4953,7 +5686,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1020</v>
       </c>
@@ -5024,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1020</v>
       </c>
@@ -5095,7 +5828,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1020</v>
       </c>
@@ -5166,7 +5899,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1020</v>
       </c>
@@ -5237,7 +5970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1020</v>
       </c>
@@ -5308,7 +6041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1020</v>
       </c>
@@ -5379,7 +6112,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1020</v>
       </c>
@@ -5450,7 +6183,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1020</v>
       </c>
@@ -5521,7 +6254,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1020</v>
       </c>
@@ -5592,7 +6325,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1020</v>
       </c>
@@ -5663,7 +6396,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1020</v>
       </c>
@@ -5734,7 +6467,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1020</v>
       </c>
@@ -5805,7 +6538,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1020</v>
       </c>
@@ -5876,7 +6609,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1020</v>
       </c>
@@ -5947,7 +6680,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1020</v>
       </c>
@@ -6018,7 +6751,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1240</v>
       </c>
@@ -6089,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1240</v>
       </c>
@@ -6160,7 +6893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1240</v>
       </c>
@@ -6231,7 +6964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1240</v>
       </c>
@@ -6302,7 +7035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1240</v>
       </c>
@@ -6373,7 +7106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1240</v>
       </c>
@@ -6444,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1240</v>
       </c>
@@ -6515,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1240</v>
       </c>
@@ -6586,7 +7319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1240</v>
       </c>
@@ -6657,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1240</v>
       </c>
@@ -6728,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1240</v>
       </c>
@@ -6799,7 +7532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1240</v>
       </c>
@@ -6870,7 +7603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1240</v>
       </c>
@@ -6941,7 +7674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1240</v>
       </c>
@@ -7012,7 +7745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1240</v>
       </c>
@@ -7083,7 +7816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1240</v>
       </c>
@@ -7154,7 +7887,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1240</v>
       </c>
@@ -7225,7 +7958,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1240</v>
       </c>
@@ -7296,7 +8029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1240</v>
       </c>
@@ -7367,7 +8100,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1240</v>
       </c>
@@ -7438,7 +8171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1240</v>
       </c>
@@ -7509,7 +8242,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1240</v>
       </c>
@@ -7580,7 +8313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1240</v>
       </c>
@@ -7651,7 +8384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1240</v>
       </c>
@@ -7722,7 +8455,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1240</v>
       </c>
@@ -7793,7 +8526,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1240</v>
       </c>
@@ -7864,7 +8597,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1240</v>
       </c>
@@ -7935,7 +8668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1240</v>
       </c>
@@ -8006,7 +8739,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1240</v>
       </c>
@@ -8077,7 +8810,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1240</v>
       </c>
@@ -8148,7 +8881,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1240</v>
       </c>
@@ -8219,7 +8952,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>960</v>
       </c>
@@ -8290,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>960</v>
       </c>
@@ -8361,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>960</v>
       </c>
@@ -8432,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>960</v>
       </c>
@@ -8503,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>960</v>
       </c>
@@ -8574,7 +9307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>960</v>
       </c>
@@ -8645,7 +9378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>960</v>
       </c>
@@ -8716,7 +9449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>960</v>
       </c>
@@ -8787,7 +9520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>960</v>
       </c>
@@ -8858,7 +9591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>960</v>
       </c>
@@ -8929,7 +9662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>960</v>
       </c>
@@ -9000,7 +9733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>960</v>
       </c>
@@ -9071,7 +9804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>960</v>
       </c>
@@ -9142,7 +9875,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>960</v>
       </c>
@@ -9213,7 +9946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>960</v>
       </c>
@@ -9284,7 +10017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>960</v>
       </c>
@@ -9355,7 +10088,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>960</v>
       </c>
@@ -9426,7 +10159,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>960</v>
       </c>
@@ -9497,7 +10230,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>960</v>
       </c>
@@ -9568,7 +10301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>960</v>
       </c>
@@ -9639,7 +10372,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>960</v>
       </c>
@@ -9710,7 +10443,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>960</v>
       </c>
@@ -9781,7 +10514,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>960</v>
       </c>
@@ -9852,7 +10585,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>960</v>
       </c>
@@ -9923,7 +10656,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>960</v>
       </c>
@@ -9994,7 +10727,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>960</v>
       </c>
@@ -10065,7 +10798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>960</v>
       </c>
@@ -10136,7 +10869,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>960</v>
       </c>
@@ -10207,7 +10940,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>960</v>
       </c>
@@ -10278,7 +11011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>960</v>
       </c>
@@ -10349,7 +11082,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>960</v>
       </c>
@@ -10420,7 +11153,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>960</v>
       </c>
@@ -10491,7 +11224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1240</v>
       </c>
@@ -10562,7 +11295,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1020</v>
       </c>
@@ -10633,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1020</v>
       </c>
@@ -10704,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1020</v>
       </c>
@@ -10775,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1020</v>
       </c>
@@ -10846,7 +11579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1020</v>
       </c>
@@ -10917,7 +11650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1020</v>
       </c>
@@ -10988,7 +11721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1020</v>
       </c>
@@ -11059,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1020</v>
       </c>
@@ -11130,7 +11863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1020</v>
       </c>
@@ -11201,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1020</v>
       </c>
@@ -11272,7 +12005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1020</v>
       </c>
@@ -11343,7 +12076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1020</v>
       </c>
@@ -11414,7 +12147,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1020</v>
       </c>
@@ -11485,7 +12218,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1020</v>
       </c>
@@ -11556,7 +12289,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1020</v>
       </c>
@@ -11627,7 +12360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1020</v>
       </c>
@@ -11698,7 +12431,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1020</v>
       </c>
@@ -11769,7 +12502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1020</v>
       </c>
@@ -11840,7 +12573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1020</v>
       </c>
@@ -11911,7 +12644,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1020</v>
       </c>
@@ -11982,7 +12715,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1020</v>
       </c>
@@ -12053,7 +12786,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1020</v>
       </c>
@@ -12124,7 +12857,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1020</v>
       </c>
@@ -12195,7 +12928,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1020</v>
       </c>
@@ -12266,7 +12999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1020</v>
       </c>
@@ -12337,7 +13070,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1020</v>
       </c>
@@ -12408,7 +13141,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1020</v>
       </c>
@@ -12479,7 +13212,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1020</v>
       </c>
@@ -12550,7 +13283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1020</v>
       </c>
@@ -12621,7 +13354,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1020</v>
       </c>
@@ -12692,7 +13425,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1020</v>
       </c>
@@ -12763,7 +13496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1020</v>
       </c>
@@ -12834,7 +13567,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1020</v>
       </c>
@@ -12905,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1020</v>
       </c>
@@ -12976,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1020</v>
       </c>
@@ -13047,7 +13780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1020</v>
       </c>
@@ -13118,7 +13851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1020</v>
       </c>
@@ -13189,7 +13922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1020</v>
       </c>
@@ -13260,7 +13993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1020</v>
       </c>
@@ -13331,7 +14064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1020</v>
       </c>
@@ -13402,7 +14135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1020</v>
       </c>
@@ -13473,7 +14206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1020</v>
       </c>
@@ -13544,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1020</v>
       </c>
@@ -13615,7 +14348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1020</v>
       </c>
@@ -13686,7 +14419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1020</v>
       </c>
@@ -13757,7 +14490,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1020</v>
       </c>
@@ -13828,7 +14561,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1020</v>
       </c>
@@ -13899,7 +14632,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1020</v>
       </c>
@@ -13970,7 +14703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1020</v>
       </c>
@@ -14041,7 +14774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1020</v>
       </c>
@@ -14112,7 +14845,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1020</v>
       </c>
@@ -14183,7 +14916,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1020</v>
       </c>
@@ -14254,7 +14987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1020</v>
       </c>
@@ -14325,7 +15058,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1020</v>
       </c>
@@ -14396,7 +15129,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1020</v>
       </c>
@@ -14467,7 +15200,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1020</v>
       </c>
@@ -14538,7 +15271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1020</v>
       </c>
@@ -14609,7 +15342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1020</v>
       </c>
@@ -14680,7 +15413,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1020</v>
       </c>
@@ -14751,7 +15484,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1020</v>
       </c>
@@ -14822,7 +15555,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1020</v>
       </c>
@@ -14893,7 +15626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1020</v>
       </c>
@@ -14964,7 +15697,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1020</v>
       </c>
@@ -15035,7 +15768,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1020</v>
       </c>
@@ -17307,7 +18040,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>960</v>
       </c>
@@ -17378,71 +18111,2481 @@
         <v>127</v>
       </c>
     </row>
-    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="T226" s="4">
-        <f>SUM(T194:T225)</f>
-        <v>624406970.79999995</v>
-      </c>
-      <c r="U226" s="4">
-        <f t="shared" ref="U226:W226" si="0">SUM(U194:U225)</f>
-        <v>23826.94434785836</v>
-      </c>
-      <c r="V226" s="4">
-        <f t="shared" si="0"/>
-        <v>1060800</v>
-      </c>
-      <c r="W226" s="4">
-        <f t="shared" si="0"/>
-        <v>2321</v>
-      </c>
-    </row>
-    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="T227" s="4">
-        <f>SUM(T162:T193)</f>
-        <v>633772797.64999998</v>
-      </c>
-      <c r="U227" s="4">
-        <f>MAX(U162:U193)</f>
-        <v>1326.4110245704601</v>
-      </c>
-      <c r="V227" s="4">
-        <f t="shared" ref="U227:W227" si="1">SUM(V162:V193)</f>
-        <v>1253460</v>
-      </c>
-      <c r="W227" s="4">
-        <f t="shared" si="1"/>
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1141</v>
+      </c>
+      <c r="B226">
+        <v>60</v>
+      </c>
+      <c r="C226">
+        <v>3000000000000</v>
+      </c>
+      <c r="D226">
+        <v>200000000000</v>
+      </c>
+      <c r="E226">
+        <v>40000</v>
+      </c>
+      <c r="F226">
+        <v>20000</v>
+      </c>
+      <c r="G226" t="s">
+        <v>178</v>
+      </c>
+      <c r="H226" t="s">
+        <v>26</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>5547</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>204762.3</v>
+      </c>
+      <c r="U226">
+        <v>16.9402511119842</v>
+      </c>
+      <c r="V226">
+        <v>1260</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1141</v>
+      </c>
+      <c r="B227">
+        <v>60</v>
+      </c>
+      <c r="C227">
+        <v>3000000000000</v>
+      </c>
+      <c r="D227">
+        <v>200000000000</v>
+      </c>
+      <c r="E227">
+        <v>40000</v>
+      </c>
+      <c r="F227">
+        <v>20000</v>
+      </c>
+      <c r="G227" t="s">
+        <v>178</v>
+      </c>
+      <c r="H227" t="s">
+        <v>27</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>4719</v>
+      </c>
+      <c r="R227">
+        <v>88</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>868443.25</v>
+      </c>
+      <c r="U227">
+        <v>18.594374179839999</v>
+      </c>
+      <c r="V227">
+        <v>1500</v>
+      </c>
+      <c r="W227">
+        <v>3</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>1141</v>
+      </c>
+      <c r="B228">
+        <v>60</v>
+      </c>
+      <c r="C228">
+        <v>3000000000000</v>
+      </c>
+      <c r="D228">
+        <v>200000000000</v>
+      </c>
+      <c r="E228">
+        <v>40000</v>
+      </c>
+      <c r="F228">
+        <v>20000</v>
+      </c>
+      <c r="G228" t="s">
+        <v>178</v>
+      </c>
+      <c r="H228" t="s">
+        <v>24</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>4797</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>213290.75</v>
+      </c>
       <c r="U228">
-        <f>MAX(U194:U225)</f>
-        <v>1399.0718147754601</v>
+        <v>20.4445123672485</v>
+      </c>
+      <c r="V228">
+        <v>1260</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1141</v>
+      </c>
+      <c r="B229">
+        <v>60</v>
+      </c>
+      <c r="C229">
+        <v>3000000000000</v>
+      </c>
+      <c r="D229">
+        <v>200000000000</v>
+      </c>
+      <c r="E229">
+        <v>40000</v>
+      </c>
+      <c r="F229">
+        <v>20000</v>
+      </c>
+      <c r="G229" t="s">
+        <v>178</v>
+      </c>
+      <c r="H229" t="s">
+        <v>32</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>4719</v>
+      </c>
+      <c r="R229">
+        <v>178</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>1368313</v>
+      </c>
+      <c r="U229">
+        <v>20.501516819000202</v>
+      </c>
+      <c r="V229">
+        <v>1500</v>
+      </c>
+      <c r="W229">
+        <v>8</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1141</v>
+      </c>
+      <c r="B230">
+        <v>60</v>
+      </c>
+      <c r="C230">
+        <v>3000000000000</v>
+      </c>
+      <c r="D230">
+        <v>200000000000</v>
+      </c>
+      <c r="E230">
+        <v>40000</v>
+      </c>
+      <c r="F230">
+        <v>20000</v>
+      </c>
+      <c r="G230" t="s">
+        <v>178</v>
+      </c>
+      <c r="H230" t="s">
+        <v>28</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>5482</v>
+      </c>
+      <c r="R230">
+        <v>90</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>1156623.45</v>
+      </c>
+      <c r="U230">
+        <v>19.786462306976301</v>
+      </c>
+      <c r="V230">
+        <v>1500</v>
+      </c>
+      <c r="W230">
+        <v>3</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1141</v>
+      </c>
+      <c r="B231">
+        <v>60</v>
+      </c>
+      <c r="C231">
+        <v>3000000000000</v>
+      </c>
+      <c r="D231">
+        <v>200000000000</v>
+      </c>
+      <c r="E231">
+        <v>40000</v>
+      </c>
+      <c r="F231">
+        <v>20000</v>
+      </c>
+      <c r="G231" t="s">
+        <v>178</v>
+      </c>
+      <c r="H231" t="s">
+        <v>31</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>5482</v>
+      </c>
+      <c r="R231">
+        <v>403</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>1877251.15</v>
+      </c>
+      <c r="U231">
+        <v>19.3324279785156</v>
+      </c>
+      <c r="V231">
+        <v>1500</v>
+      </c>
+      <c r="W231">
+        <v>8</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1141</v>
+      </c>
+      <c r="B232">
+        <v>60</v>
+      </c>
+      <c r="C232">
+        <v>3000000000000</v>
+      </c>
+      <c r="D232">
+        <v>200000000000</v>
+      </c>
+      <c r="E232">
+        <v>40000</v>
+      </c>
+      <c r="F232">
+        <v>20000</v>
+      </c>
+      <c r="G232" t="s">
+        <v>178</v>
+      </c>
+      <c r="H232" t="s">
+        <v>30</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>5281</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>31352.85</v>
+      </c>
+      <c r="U232">
+        <v>30.046220779418899</v>
+      </c>
+      <c r="V232">
+        <v>2580</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>-1</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1141</v>
+      </c>
+      <c r="B233">
+        <v>60</v>
+      </c>
+      <c r="C233">
+        <v>3000000000000</v>
+      </c>
+      <c r="D233">
+        <v>200000000000</v>
+      </c>
+      <c r="E233">
+        <v>40000</v>
+      </c>
+      <c r="F233">
+        <v>20000</v>
+      </c>
+      <c r="G233" t="s">
+        <v>179</v>
+      </c>
+      <c r="H233" t="s">
+        <v>29</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>3877</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>35965.75</v>
+      </c>
+      <c r="U233">
+        <v>37.604779481887803</v>
+      </c>
+      <c r="V233">
+        <v>2580</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1141</v>
+      </c>
+      <c r="B234">
+        <v>60</v>
+      </c>
+      <c r="C234">
+        <v>3000000000000</v>
+      </c>
+      <c r="D234">
+        <v>200000000000</v>
+      </c>
+      <c r="E234">
+        <v>40000</v>
+      </c>
+      <c r="F234">
+        <v>20000</v>
+      </c>
+      <c r="G234" t="s">
+        <v>180</v>
+      </c>
+      <c r="H234" t="s">
+        <v>35</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>10963</v>
+      </c>
+      <c r="R234">
+        <v>354</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>449950.65</v>
+      </c>
+      <c r="U234">
+        <v>152.95638465881299</v>
+      </c>
+      <c r="V234">
+        <v>24180</v>
+      </c>
+      <c r="W234">
+        <v>1</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1141</v>
+      </c>
+      <c r="B235">
+        <v>60</v>
+      </c>
+      <c r="C235">
+        <v>3000000000000</v>
+      </c>
+      <c r="D235">
+        <v>200000000000</v>
+      </c>
+      <c r="E235">
+        <v>40000</v>
+      </c>
+      <c r="F235">
+        <v>20000</v>
+      </c>
+      <c r="G235" t="s">
+        <v>180</v>
+      </c>
+      <c r="H235" t="s">
+        <v>34</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>9365</v>
+      </c>
+      <c r="R235">
+        <v>265</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="T235">
+        <v>517139.8</v>
+      </c>
+      <c r="U235">
+        <v>156.59765195846501</v>
+      </c>
+      <c r="V235">
+        <v>24180</v>
+      </c>
+      <c r="W235">
+        <v>1</v>
+      </c>
+      <c r="X235">
+        <v>-1</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1141</v>
+      </c>
+      <c r="B236">
+        <v>60</v>
+      </c>
+      <c r="C236">
+        <v>3000000000000</v>
+      </c>
+      <c r="D236">
+        <v>200000000000</v>
+      </c>
+      <c r="E236">
+        <v>40000</v>
+      </c>
+      <c r="F236">
+        <v>20000</v>
+      </c>
+      <c r="G236" t="s">
+        <v>181</v>
+      </c>
+      <c r="H236" t="s">
+        <v>37</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>673</v>
+      </c>
+      <c r="S236">
+        <v>45</v>
+      </c>
+      <c r="T236">
+        <v>1901354.9</v>
+      </c>
+      <c r="U236">
+        <v>395.15493988990698</v>
+      </c>
+      <c r="V236">
+        <v>0</v>
+      </c>
+      <c r="W236">
+        <v>8</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1141</v>
+      </c>
+      <c r="B237">
+        <v>60</v>
+      </c>
+      <c r="C237">
+        <v>3000000000000</v>
+      </c>
+      <c r="D237">
+        <v>200000000000</v>
+      </c>
+      <c r="E237">
+        <v>40000</v>
+      </c>
+      <c r="F237">
+        <v>20000</v>
+      </c>
+      <c r="G237" t="s">
+        <v>182</v>
+      </c>
+      <c r="H237" t="s">
+        <v>38</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>807</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>2610245.1</v>
+      </c>
+      <c r="U237">
+        <v>451.23608446121199</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+      <c r="W237">
+        <v>1</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1141</v>
+      </c>
+      <c r="B238">
+        <v>60</v>
+      </c>
+      <c r="C238">
+        <v>3000000000000</v>
+      </c>
+      <c r="D238">
+        <v>200000000000</v>
+      </c>
+      <c r="E238">
+        <v>40000</v>
+      </c>
+      <c r="F238">
+        <v>20000</v>
+      </c>
+      <c r="G238" t="s">
+        <v>183</v>
+      </c>
+      <c r="H238" t="s">
+        <v>44</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>14865</v>
+      </c>
+      <c r="R238">
+        <v>673</v>
+      </c>
+      <c r="S238">
+        <v>45</v>
+      </c>
+      <c r="T238">
+        <v>2487521.9</v>
+      </c>
+      <c r="U238">
+        <v>533.14646911621003</v>
+      </c>
+      <c r="V238">
+        <v>42240</v>
+      </c>
+      <c r="W238">
+        <v>8</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>1141</v>
+      </c>
+      <c r="B239">
+        <v>60</v>
+      </c>
+      <c r="C239">
+        <v>3000000000000</v>
+      </c>
+      <c r="D239">
+        <v>200000000000</v>
+      </c>
+      <c r="E239">
+        <v>40000</v>
+      </c>
+      <c r="F239">
+        <v>20000</v>
+      </c>
+      <c r="G239" t="s">
+        <v>184</v>
+      </c>
+      <c r="H239" t="s">
+        <v>60</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>21352</v>
+      </c>
+      <c r="R239">
+        <v>8248</v>
+      </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+      <c r="T239">
+        <v>19118226.449999999</v>
+      </c>
+      <c r="U239">
+        <v>872.06642007827702</v>
+      </c>
+      <c r="V239">
+        <v>38880</v>
+      </c>
+      <c r="W239">
+        <v>117</v>
+      </c>
+      <c r="X239">
+        <v>-1</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1141</v>
+      </c>
+      <c r="B240">
+        <v>60</v>
+      </c>
+      <c r="C240">
+        <v>3000000000000</v>
+      </c>
+      <c r="D240">
+        <v>200000000000</v>
+      </c>
+      <c r="E240">
+        <v>40000</v>
+      </c>
+      <c r="F240">
+        <v>20000</v>
+      </c>
+      <c r="G240" t="s">
+        <v>184</v>
+      </c>
+      <c r="H240" t="s">
+        <v>52</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>20417</v>
+      </c>
+      <c r="R240">
+        <v>8022</v>
+      </c>
+      <c r="S240">
+        <v>0</v>
+      </c>
+      <c r="T240">
+        <v>18481652.100000001</v>
+      </c>
+      <c r="U240">
+        <v>821.89101934432904</v>
+      </c>
+      <c r="V240">
+        <v>35040</v>
+      </c>
+      <c r="W240">
+        <v>101</v>
+      </c>
+      <c r="X240">
+        <v>-1</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>1141</v>
+      </c>
+      <c r="B241">
+        <v>60</v>
+      </c>
+      <c r="C241">
+        <v>3000000000000</v>
+      </c>
+      <c r="D241">
+        <v>200000000000</v>
+      </c>
+      <c r="E241">
+        <v>40000</v>
+      </c>
+      <c r="F241">
+        <v>20000</v>
+      </c>
+      <c r="G241" t="s">
+        <v>185</v>
+      </c>
+      <c r="H241" t="s">
+        <v>48</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>16423</v>
+      </c>
+      <c r="R241">
+        <v>6943</v>
+      </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+      <c r="T241">
+        <v>17198544.949999999</v>
+      </c>
+      <c r="U241">
+        <v>897.27680897712696</v>
+      </c>
+      <c r="V241">
+        <v>23940</v>
+      </c>
+      <c r="W241">
+        <v>96</v>
+      </c>
+      <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>1141</v>
+      </c>
+      <c r="B242">
+        <v>60</v>
+      </c>
+      <c r="C242">
+        <v>3000000000000</v>
+      </c>
+      <c r="D242">
+        <v>200000000000</v>
+      </c>
+      <c r="E242">
+        <v>40000</v>
+      </c>
+      <c r="F242">
+        <v>20000</v>
+      </c>
+      <c r="G242" t="s">
+        <v>186</v>
+      </c>
+      <c r="H242" t="s">
+        <v>54</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <v>20502</v>
+      </c>
+      <c r="R242">
+        <v>7803</v>
+      </c>
+      <c r="S242">
+        <v>57</v>
+      </c>
+      <c r="T242">
+        <v>19620643.600000001</v>
+      </c>
+      <c r="U242">
+        <v>931.05230712890602</v>
+      </c>
+      <c r="V242">
+        <v>32220</v>
+      </c>
+      <c r="W242">
+        <v>103</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>1141</v>
+      </c>
+      <c r="B243">
+        <v>60</v>
+      </c>
+      <c r="C243">
+        <v>3000000000000</v>
+      </c>
+      <c r="D243">
+        <v>200000000000</v>
+      </c>
+      <c r="E243">
+        <v>40000</v>
+      </c>
+      <c r="F243">
+        <v>20000</v>
+      </c>
+      <c r="G243" t="s">
+        <v>186</v>
+      </c>
+      <c r="H243" t="s">
+        <v>59</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>19808</v>
+      </c>
+      <c r="R243">
+        <v>7948</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="T243">
+        <v>22735433.050000001</v>
+      </c>
+      <c r="U243">
+        <v>934.94660067558198</v>
+      </c>
+      <c r="V243">
+        <v>38880</v>
+      </c>
+      <c r="W243">
+        <v>117</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>1141</v>
+      </c>
+      <c r="B244">
+        <v>60</v>
+      </c>
+      <c r="C244">
+        <v>3000000000000</v>
+      </c>
+      <c r="D244">
+        <v>200000000000</v>
+      </c>
+      <c r="E244">
+        <v>40000</v>
+      </c>
+      <c r="F244">
+        <v>20000</v>
+      </c>
+      <c r="G244" t="s">
+        <v>187</v>
+      </c>
+      <c r="H244" t="s">
+        <v>40</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>19537</v>
+      </c>
+      <c r="R244">
+        <v>1755</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>5510748.2000000002</v>
+      </c>
+      <c r="U244">
+        <v>630.18022441864002</v>
+      </c>
+      <c r="V244">
+        <v>56520</v>
+      </c>
+      <c r="W244">
+        <v>9</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>1141</v>
+      </c>
+      <c r="B245">
+        <v>60</v>
+      </c>
+      <c r="C245">
+        <v>3000000000000</v>
+      </c>
+      <c r="D245">
+        <v>200000000000</v>
+      </c>
+      <c r="E245">
+        <v>40000</v>
+      </c>
+      <c r="F245">
+        <v>20000</v>
+      </c>
+      <c r="G245" t="s">
+        <v>186</v>
+      </c>
+      <c r="H245" t="s">
+        <v>53</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>17943</v>
+      </c>
+      <c r="R245">
+        <v>7445</v>
+      </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+      <c r="T245">
+        <v>21477335.649999999</v>
+      </c>
+      <c r="U245">
+        <v>953.74698805808998</v>
+      </c>
+      <c r="V245">
+        <v>35040</v>
+      </c>
+      <c r="W245">
+        <v>101</v>
+      </c>
+      <c r="X245">
+        <v>-1</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>1141</v>
+      </c>
+      <c r="B246">
+        <v>60</v>
+      </c>
+      <c r="C246">
+        <v>3000000000000</v>
+      </c>
+      <c r="D246">
+        <v>200000000000</v>
+      </c>
+      <c r="E246">
+        <v>40000</v>
+      </c>
+      <c r="F246">
+        <v>20000</v>
+      </c>
+      <c r="G246" t="s">
+        <v>188</v>
+      </c>
+      <c r="H246" t="s">
+        <v>49</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>15478</v>
+      </c>
+      <c r="R246">
+        <v>6727</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>20364125.850000001</v>
+      </c>
+      <c r="U246">
+        <v>1007.97708678245</v>
+      </c>
+      <c r="V246">
+        <v>23940</v>
+      </c>
+      <c r="W246">
+        <v>96</v>
+      </c>
+      <c r="X246">
+        <v>-1</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>1141</v>
+      </c>
+      <c r="B247">
+        <v>60</v>
+      </c>
+      <c r="C247">
+        <v>3000000000000</v>
+      </c>
+      <c r="D247">
+        <v>200000000000</v>
+      </c>
+      <c r="E247">
+        <v>40000</v>
+      </c>
+      <c r="F247">
+        <v>20000</v>
+      </c>
+      <c r="G247" t="s">
+        <v>189</v>
+      </c>
+      <c r="H247" t="s">
+        <v>67</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <v>33371</v>
+      </c>
+      <c r="R247">
+        <v>9402</v>
+      </c>
+      <c r="S247">
+        <v>46</v>
+      </c>
+      <c r="T247">
+        <v>15249807.699999999</v>
+      </c>
+      <c r="U247">
+        <v>1066.16939115524</v>
+      </c>
+      <c r="V247">
+        <v>169920</v>
+      </c>
+      <c r="W247">
+        <v>70</v>
+      </c>
+      <c r="X247">
+        <v>-1</v>
+      </c>
+      <c r="Y247">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1141</v>
+      </c>
+      <c r="B248">
+        <v>60</v>
+      </c>
+      <c r="C248">
+        <v>3000000000000</v>
+      </c>
+      <c r="D248">
+        <v>200000000000</v>
+      </c>
+      <c r="E248">
+        <v>40000</v>
+      </c>
+      <c r="F248">
+        <v>20000</v>
+      </c>
+      <c r="G248" t="s">
+        <v>189</v>
+      </c>
+      <c r="H248" t="s">
+        <v>50</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <v>18623</v>
+      </c>
+      <c r="R248">
+        <v>7811</v>
+      </c>
+      <c r="S248">
+        <v>103</v>
+      </c>
+      <c r="T248">
+        <v>24805727.949999999</v>
+      </c>
+      <c r="U248">
+        <v>1050.34021735191</v>
+      </c>
+      <c r="V248">
+        <v>31980</v>
+      </c>
+      <c r="W248">
+        <v>106</v>
+      </c>
+      <c r="X248">
+        <v>-1</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>1141</v>
+      </c>
+      <c r="B249">
+        <v>60</v>
+      </c>
+      <c r="C249">
+        <v>3000000000000</v>
+      </c>
+      <c r="D249">
+        <v>200000000000</v>
+      </c>
+      <c r="E249">
+        <v>40000</v>
+      </c>
+      <c r="F249">
+        <v>20000</v>
+      </c>
+      <c r="G249" t="s">
+        <v>189</v>
+      </c>
+      <c r="H249" t="s">
+        <v>56</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>36407</v>
+      </c>
+      <c r="R249">
+        <v>11637</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>11278835.800000001</v>
+      </c>
+      <c r="U249">
+        <v>1079.41536951065</v>
+      </c>
+      <c r="V249">
+        <v>182400</v>
+      </c>
+      <c r="W249">
+        <v>45</v>
+      </c>
+      <c r="X249">
+        <v>-1</v>
+      </c>
+      <c r="Y249">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>1141</v>
+      </c>
+      <c r="B250">
+        <v>60</v>
+      </c>
+      <c r="C250">
+        <v>3000000000000</v>
+      </c>
+      <c r="D250">
+        <v>200000000000</v>
+      </c>
+      <c r="E250">
+        <v>40000</v>
+      </c>
+      <c r="F250">
+        <v>20000</v>
+      </c>
+      <c r="G250" t="s">
+        <v>189</v>
+      </c>
+      <c r="H250" t="s">
+        <v>65</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>33850</v>
+      </c>
+      <c r="R250">
+        <v>10511</v>
+      </c>
+      <c r="S250">
+        <v>46</v>
+      </c>
+      <c r="T250">
+        <v>12728367.15</v>
+      </c>
+      <c r="U250">
+        <v>1106.58937716484</v>
+      </c>
+      <c r="V250">
+        <v>169920</v>
+      </c>
+      <c r="W250">
+        <v>70</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1141</v>
+      </c>
+      <c r="B251">
+        <v>60</v>
+      </c>
+      <c r="C251">
+        <v>3000000000000</v>
+      </c>
+      <c r="D251">
+        <v>200000000000</v>
+      </c>
+      <c r="E251">
+        <v>40000</v>
+      </c>
+      <c r="F251">
+        <v>20000</v>
+      </c>
+      <c r="G251" t="s">
+        <v>190</v>
+      </c>
+      <c r="H251" t="s">
+        <v>58</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>35251</v>
+      </c>
+      <c r="R251">
+        <v>9809</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>13789188.9</v>
+      </c>
+      <c r="U251">
+        <v>1118.8692903518599</v>
+      </c>
+      <c r="V251">
+        <v>182400</v>
+      </c>
+      <c r="W251">
+        <v>45</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>1141</v>
+      </c>
+      <c r="B252">
+        <v>60</v>
+      </c>
+      <c r="C252">
+        <v>3000000000000</v>
+      </c>
+      <c r="D252">
+        <v>200000000000</v>
+      </c>
+      <c r="E252">
+        <v>40000</v>
+      </c>
+      <c r="F252">
+        <v>20000</v>
+      </c>
+      <c r="G252" t="s">
+        <v>191</v>
+      </c>
+      <c r="H252" t="s">
+        <v>42</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>21848</v>
+      </c>
+      <c r="R252">
+        <v>12508</v>
+      </c>
+      <c r="S252">
+        <v>60</v>
+      </c>
+      <c r="T252">
+        <v>36127713.399999999</v>
+      </c>
+      <c r="U252">
+        <v>1299.0669791698399</v>
+      </c>
+      <c r="V252">
+        <v>32160</v>
+      </c>
+      <c r="W252">
+        <v>204</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>1141</v>
+      </c>
+      <c r="B253">
+        <v>60</v>
+      </c>
+      <c r="C253">
+        <v>3000000000000</v>
+      </c>
+      <c r="D253">
+        <v>200000000000</v>
+      </c>
+      <c r="E253">
+        <v>40000</v>
+      </c>
+      <c r="F253">
+        <v>20000</v>
+      </c>
+      <c r="G253" t="s">
+        <v>191</v>
+      </c>
+      <c r="H253" t="s">
+        <v>46</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>18616</v>
+      </c>
+      <c r="R253">
+        <v>11887</v>
+      </c>
+      <c r="S253">
+        <v>60</v>
+      </c>
+      <c r="T253">
+        <v>43695034</v>
+      </c>
+      <c r="U253">
+        <v>1306.37451529502</v>
+      </c>
+      <c r="V253">
+        <v>32160</v>
+      </c>
+      <c r="W253">
+        <v>204</v>
+      </c>
+      <c r="X253">
+        <v>-1</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>1141</v>
+      </c>
+      <c r="B254">
+        <v>60</v>
+      </c>
+      <c r="C254">
+        <v>3000000000000</v>
+      </c>
+      <c r="D254">
+        <v>200000000000</v>
+      </c>
+      <c r="E254">
+        <v>40000</v>
+      </c>
+      <c r="F254">
+        <v>20000</v>
+      </c>
+      <c r="G254" t="s">
+        <v>191</v>
+      </c>
+      <c r="H254" t="s">
+        <v>63</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>28539</v>
+      </c>
+      <c r="R254">
+        <v>30661</v>
+      </c>
+      <c r="S254">
+        <v>45</v>
+      </c>
+      <c r="T254">
+        <v>99871361.900000006</v>
+      </c>
+      <c r="U254">
+        <v>1324.5238592624601</v>
+      </c>
+      <c r="V254">
+        <v>113880</v>
+      </c>
+      <c r="W254">
+        <v>241</v>
+      </c>
+      <c r="X254">
+        <v>-1</v>
+      </c>
+      <c r="Y254">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>1141</v>
+      </c>
+      <c r="B255">
+        <v>60</v>
+      </c>
+      <c r="C255">
+        <v>3000000000000</v>
+      </c>
+      <c r="D255">
+        <v>200000000000</v>
+      </c>
+      <c r="E255">
+        <v>40000</v>
+      </c>
+      <c r="F255">
+        <v>20000</v>
+      </c>
+      <c r="G255" t="s">
+        <v>192</v>
+      </c>
+      <c r="H255" t="s">
+        <v>62</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>23435</v>
+      </c>
+      <c r="R255">
+        <v>28960</v>
+      </c>
+      <c r="S255">
+        <v>45</v>
+      </c>
+      <c r="T255">
+        <v>78216895.799999997</v>
+      </c>
+      <c r="U255">
+        <v>1366.7099812030699</v>
+      </c>
+      <c r="V255">
+        <v>101640</v>
+      </c>
+      <c r="W255">
+        <v>240</v>
+      </c>
+      <c r="X255">
+        <v>-1</v>
+      </c>
+      <c r="Y255">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>1141</v>
+      </c>
+      <c r="B256">
+        <v>60</v>
+      </c>
+      <c r="C256">
+        <v>3000000000000</v>
+      </c>
+      <c r="D256">
+        <v>200000000000</v>
+      </c>
+      <c r="E256">
+        <v>40000</v>
+      </c>
+      <c r="F256">
+        <v>20000</v>
+      </c>
+      <c r="G256" t="s">
+        <v>193</v>
+      </c>
+      <c r="H256" t="s">
+        <v>68</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256">
+        <v>24879</v>
+      </c>
+      <c r="R256">
+        <v>27971</v>
+      </c>
+      <c r="S256">
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <v>78344429.700000003</v>
+      </c>
+      <c r="U256">
+        <v>1412.59040021896</v>
+      </c>
+      <c r="V256">
+        <v>109260</v>
+      </c>
+      <c r="W256">
+        <v>216</v>
+      </c>
+      <c r="X256">
+        <v>-1</v>
+      </c>
+      <c r="Y256">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>1141</v>
+      </c>
+      <c r="B257">
+        <v>60</v>
+      </c>
+      <c r="C257">
+        <v>3000000000000</v>
+      </c>
+      <c r="D257">
+        <v>200000000000</v>
+      </c>
+      <c r="E257">
+        <v>40000</v>
+      </c>
+      <c r="F257">
+        <v>20000</v>
+      </c>
+      <c r="G257" t="s">
+        <v>193</v>
+      </c>
+      <c r="H257" t="s">
+        <v>70</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>28879</v>
+      </c>
+      <c r="R257">
+        <v>28731</v>
+      </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+      <c r="T257">
+        <v>98086740.099999994</v>
+      </c>
+      <c r="U257">
+        <v>1423.72222566604</v>
+      </c>
+      <c r="V257">
+        <v>109260</v>
+      </c>
+      <c r="W257">
+        <v>216</v>
+      </c>
+      <c r="X257">
+        <v>-1</v>
+      </c>
+      <c r="Y257">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W227" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="960"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="2E+11"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87F925-7F36-4A01-A760-B497EFBA6EF4}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17454,7 +20597,7 @@
     <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -17470,12 +20613,15 @@
       <c r="E1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>900</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>SUM(kpiBat!T97:T128)</f>
         <v>624720102.74999988</v>
       </c>
@@ -17491,12 +20637,15 @@
         <f>SUM(kpiBat!W97:W128)</f>
         <v>2221</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>960</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>SUM(kpiBat!T2:T33)</f>
         <v>627075226.70000005</v>
       </c>
@@ -17512,12 +20661,15 @@
         <f>SUM(kpiBat!W2:W33)</f>
         <v>2145</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1020</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>632183738.25000012</v>
       </c>
       <c r="C4" s="2">
@@ -17529,12 +20681,15 @@
       <c r="E4" s="3">
         <v>2349</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1080</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>627790413.35000002</v>
       </c>
       <c r="C5" s="2">
@@ -17546,12 +20701,15 @@
       <c r="E5" s="3">
         <v>2229</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1140</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>628452714.00000012</v>
       </c>
       <c r="C6" s="2">
@@ -17563,12 +20721,15 @@
       <c r="E6" s="3">
         <v>2190</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1200</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>628856871.54999995</v>
       </c>
       <c r="C7" s="2">
@@ -17580,10 +20741,28 @@
       <c r="E7" s="3">
         <v>2312</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1260</v>
+      </c>
+      <c r="B8" s="4">
+        <v>638199025.35000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1781.52462315559</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1801380</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2307</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17595,109 +20774,1862 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B3EBA8-678E-4A64-A6B8-006854D7B924}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E212025D-6295-4E3C-A8E9-AFFB705CECD4}">
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L1:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
         <v>900</v>
       </c>
-      <c r="B2" s="10">
-        <v>624406970.79999995</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1399.0718147754601</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1060800</v>
-      </c>
-      <c r="E2" s="9">
-        <v>2321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2" s="18">
+        <v>667971547.0999999</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1326.34708</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1022340</v>
+      </c>
+      <c r="E2" s="20">
+        <v>2413</v>
+      </c>
+      <c r="F2" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="21">
+        <v>176</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
         <v>960</v>
       </c>
-      <c r="B3" s="11">
-        <v>633772797.64999998</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1326.4110245704601</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1253460</v>
-      </c>
-      <c r="E3" s="9">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3" s="18">
+        <v>668673368.19999981</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1348.716559</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1204620</v>
+      </c>
+      <c r="E3" s="20">
+        <v>2275</v>
+      </c>
+      <c r="F3" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>206</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="L3" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>1020</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4" s="18">
+        <v>672256344.05000007</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1310.6775510311099</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1391340</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2476</v>
+      </c>
+      <c r="F4" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>203</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
         <v>1080</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B5" s="18">
+        <v>670165714.5</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1390.6916732788</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1551540</v>
+      </c>
+      <c r="E5" s="20">
+        <v>2386</v>
+      </c>
+      <c r="F5" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="21">
+        <v>206</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
         <v>1140</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B6" s="18">
+        <v>668479215</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1597.43451833724</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1600860</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2372</v>
+      </c>
+      <c r="F6" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="21">
+        <v>211</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>1200</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="18">
+        <v>842018583.20000005</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1606.0931968688899</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1905660</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2816</v>
+      </c>
+      <c r="F7" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>274</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
+        <v>1260</v>
+      </c>
+      <c r="B8" s="23">
+        <v>679612687.85000002</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1572.8711104393001</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1803660</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2439</v>
+      </c>
+      <c r="F8" s="26">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="26">
+        <v>206</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>900</v>
+      </c>
+      <c r="B11" s="18">
+        <v>623450118.04999995</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1195.7141059999999</v>
+      </c>
+      <c r="D11" s="20">
+        <v>996780</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2159</v>
+      </c>
+      <c r="F11" s="21">
+        <v>118</v>
+      </c>
+      <c r="G11" s="21">
+        <v>181</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>960</v>
+      </c>
+      <c r="B12" s="18">
+        <v>625805242</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1307.3466100000001</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1212300</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2083</v>
+      </c>
+      <c r="F12" s="21">
+        <v>124</v>
+      </c>
+      <c r="G12" s="21">
+        <v>208</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>1020</v>
+      </c>
+      <c r="B13" s="18">
+        <v>632183738.25</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1302.1431388854901</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1373820</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2297</v>
+      </c>
+      <c r="F13" s="21">
+        <v>119</v>
+      </c>
+      <c r="G13" s="21">
+        <v>204</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="L13" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>1080</v>
+      </c>
+      <c r="B14" s="18">
+        <v>627790413.35000002</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1635.1769049167599</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1561140</v>
+      </c>
+      <c r="E14" s="20">
+        <v>2177</v>
+      </c>
+      <c r="F14" s="21">
+        <v>121</v>
+      </c>
+      <c r="G14" s="21">
+        <v>209</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>1140</v>
+      </c>
+      <c r="B15" s="18">
+        <v>634208716.50000012</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1606.0931968688899</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1627800</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2160</v>
+      </c>
+      <c r="F15" s="21">
+        <v>114</v>
+      </c>
+      <c r="G15" s="21">
+        <v>217</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>1200</v>
+      </c>
+      <c r="B16" s="18">
+        <v>628856871.54999995</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1481.51011300086</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1718880</v>
+      </c>
+      <c r="E16" s="20">
+        <v>2260</v>
+      </c>
+      <c r="F16" s="21">
+        <v>127</v>
+      </c>
+      <c r="G16" s="21">
+        <v>203</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22">
+        <v>1260</v>
+      </c>
+      <c r="B17" s="23">
+        <v>638199025.35000002</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1743.69898986816</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1801380</v>
+      </c>
+      <c r="E17" s="25">
+        <v>2255</v>
+      </c>
+      <c r="F17" s="26">
+        <v>125</v>
+      </c>
+      <c r="G17" s="26">
+        <v>206</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>900</v>
+      </c>
+      <c r="B20" s="18">
+        <v>774055047.8499999</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1321.1902</v>
+      </c>
+      <c r="D20" s="20">
+        <v>931140</v>
+      </c>
+      <c r="E20" s="20">
+        <v>3233</v>
+      </c>
+      <c r="F20" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>960</v>
+      </c>
+      <c r="B21" s="18">
+        <v>769936130.19999993</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2038.1127138137799</v>
+      </c>
+      <c r="D21" s="20">
+        <v>987000</v>
+      </c>
+      <c r="E21" s="20">
+        <v>3246</v>
+      </c>
+      <c r="F21" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <v>1020</v>
+      </c>
+      <c r="B22" s="18">
+        <f>SUM([1]kpiBat!T770:T801)</f>
+        <v>771030721.04999995</v>
+      </c>
+      <c r="C22" s="19">
+        <f>MAX([1]kpiBat!U770:U801)</f>
+        <v>1577.8511559999999</v>
+      </c>
+      <c r="D22" s="20">
+        <f>SUM([1]kpiBat!V770:V801)</f>
+        <v>1190220</v>
+      </c>
+      <c r="E22" s="20">
+        <f>SUM([1]kpiBat!W770:W801)</f>
+        <v>3190</v>
+      </c>
+      <c r="F22" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>1080</v>
+      </c>
+      <c r="B23" s="18">
+        <v>758219842.69999993</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1678.8358678817699</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1331400</v>
+      </c>
+      <c r="E23" s="20">
+        <v>3149</v>
+      </c>
+      <c r="F23" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="O23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>1140</v>
+      </c>
+      <c r="B24" s="18">
+        <v>752515230</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1632.24170589447</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1413300</v>
+      </c>
+      <c r="E24" s="20">
+        <v>3109</v>
+      </c>
+      <c r="F24" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>1200</v>
+      </c>
+      <c r="B25" s="18">
+        <v>755588791.0999999</v>
+      </c>
+      <c r="C25" s="19">
+        <v>2167.2224559783899</v>
+      </c>
+      <c r="D25" s="20">
+        <v>1465380</v>
+      </c>
+      <c r="E25" s="20">
+        <v>3261</v>
+      </c>
+      <c r="F25" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22">
+        <v>1260</v>
+      </c>
+      <c r="B26" s="23">
+        <v>751651862.14999998</v>
+      </c>
+      <c r="C26" s="24">
+        <v>2124.5500984191799</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1613340</v>
+      </c>
+      <c r="E26" s="25">
+        <v>3078</v>
+      </c>
+      <c r="F26" s="26">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>900</v>
+      </c>
+      <c r="B29" s="18">
+        <v>747356444.6500001</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1476.1195764541601</v>
+      </c>
+      <c r="D29" s="20">
+        <v>923340</v>
+      </c>
+      <c r="E29" s="20">
+        <v>3068</v>
+      </c>
+      <c r="F29" s="21">
+        <v>125</v>
+      </c>
+      <c r="G29" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
+        <v>960</v>
+      </c>
+      <c r="B30" s="18">
+        <v>743113516.04999995</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1438.27474999427</v>
+      </c>
+      <c r="D30" s="20">
+        <v>978660</v>
+      </c>
+      <c r="E30" s="20">
+        <v>3090</v>
+      </c>
+      <c r="F30" s="21">
+        <v>121</v>
+      </c>
+      <c r="G30" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
+        <v>1020</v>
+      </c>
+      <c r="B31" s="18">
+        <v>744553269.60000002</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1695.4828886985699</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1163880</v>
+      </c>
+      <c r="E31" s="20">
+        <v>3056</v>
+      </c>
+      <c r="F31" s="21">
+        <v>117</v>
+      </c>
+      <c r="G31" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
+        <v>1080</v>
+      </c>
+      <c r="B32" s="18">
+        <v>722712682.64999998</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1895.8384504318201</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1335840</v>
+      </c>
+      <c r="E32" s="20">
+        <v>2956</v>
+      </c>
+      <c r="F32" s="21">
+        <v>117</v>
+      </c>
+      <c r="G32" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
+        <v>1140</v>
+      </c>
+      <c r="B33" s="18">
+        <v>731043144.95000005</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1782.6269211769099</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1404540</v>
+      </c>
+      <c r="E33" s="20">
+        <v>2952</v>
+      </c>
+      <c r="F33" s="21">
+        <v>127</v>
+      </c>
+      <c r="G33" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>1200</v>
+      </c>
+      <c r="B34" s="18">
+        <v>731079737.19999993</v>
+      </c>
+      <c r="C34" s="19">
+        <v>2386.8213462829499</v>
+      </c>
+      <c r="D34" s="20">
+        <v>1489800</v>
+      </c>
+      <c r="E34" s="20">
+        <v>3109</v>
+      </c>
+      <c r="F34" s="21">
+        <v>121</v>
+      </c>
+      <c r="G34" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22">
+        <v>1260</v>
+      </c>
+      <c r="B35" s="23">
+        <v>731046787.85000002</v>
+      </c>
+      <c r="C35" s="24">
+        <v>2559.9985773563299</v>
+      </c>
+      <c r="D35" s="25">
+        <v>1606500</v>
+      </c>
+      <c r="E35" s="25">
+        <v>2941</v>
+      </c>
+      <c r="F35" s="26">
+        <v>117</v>
+      </c>
+      <c r="G35" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115C6464-CE6A-446D-B8A9-4C73210935AD}">
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L1:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>900</v>
+      </c>
+      <c r="B2" s="18">
+        <v>668084910.80000007</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1232.0220878124201</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1079100</v>
+      </c>
+      <c r="E2" s="20">
+        <v>2521</v>
+      </c>
+      <c r="F2" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="21">
+        <v>167</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>960</v>
+      </c>
+      <c r="B3" s="18">
+        <v>674327834.19999993</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1364.4482698440499</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1259880</v>
+      </c>
+      <c r="E3" s="20">
+        <v>2326</v>
+      </c>
+      <c r="F3" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>205</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>1020</v>
+      </c>
+      <c r="B4" s="18">
+        <v>675859191.25</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1833.87286591529</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1316580</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2423</v>
+      </c>
+      <c r="F4" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>221</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>1080</v>
+      </c>
+      <c r="B5" s="18">
+        <v>668831359.79999995</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1610.9015438556601</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1559760</v>
+      </c>
+      <c r="E5" s="20">
+        <v>2445</v>
+      </c>
+      <c r="F5" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="21">
+        <v>204</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>1140</v>
+      </c>
+      <c r="B6" s="18">
+        <v>670423027.10000002</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1423.72222566604</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1623720</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2438</v>
+      </c>
+      <c r="F6" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="21">
+        <v>203</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>1200</v>
+      </c>
+      <c r="B7" s="18">
+        <v>673445804.64999986</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1478.0363764762801</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1651920</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2540</v>
+      </c>
+      <c r="F7" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>196</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1260</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="L8" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>900</v>
+      </c>
+      <c r="B11" s="18">
+        <v>624406970.79999995</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1137.98120856285</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1060800</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2269</v>
+      </c>
+      <c r="F11" s="21">
+        <v>126</v>
+      </c>
+      <c r="G11" s="21">
+        <v>170</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>960</v>
+      </c>
+      <c r="B12" s="18">
+        <v>632633641.54999995</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1281.33936405181</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1252860</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2133</v>
+      </c>
+      <c r="F12" s="21">
+        <v>124</v>
+      </c>
+      <c r="G12" s="21">
+        <v>208</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>1020</v>
+      </c>
+      <c r="B13" s="18">
+        <v>631919324.95000005</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1330.62503194808</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1293900</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2273</v>
+      </c>
+      <c r="F13" s="21">
+        <v>117</v>
+      </c>
+      <c r="G13" s="21">
+        <v>218</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>1080</v>
+      </c>
+      <c r="B14" s="18">
+        <v>627359782.64999998</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1463.4489474296499</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1556460</v>
+      </c>
+      <c r="E14" s="20">
+        <v>2237</v>
+      </c>
+      <c r="F14" s="21">
+        <v>124</v>
+      </c>
+      <c r="G14" s="21">
+        <v>208</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>1140</v>
+      </c>
+      <c r="B15" s="18">
+        <v>628582166.05000007</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1547.2172524928999</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1622160</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2204</v>
+      </c>
+      <c r="F15" s="21">
+        <v>125</v>
+      </c>
+      <c r="G15" s="21">
+        <v>205</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>1200</v>
+      </c>
+      <c r="B16" s="18">
+        <v>636605308.89999998</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1408.8434407710999</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1655640</v>
+      </c>
+      <c r="E16" s="20">
+        <v>2323</v>
+      </c>
+      <c r="F16" s="21">
+        <v>133</v>
+      </c>
+      <c r="G16" s="21">
+        <v>197</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22">
+        <v>1260</v>
+      </c>
+      <c r="B17" s="23">
+        <v>640979075.74999988</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1499.0229036808</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1855860</v>
+      </c>
+      <c r="E17" s="25">
+        <v>2250</v>
+      </c>
+      <c r="F17" s="26">
+        <v>125</v>
+      </c>
+      <c r="G17" s="26">
+        <v>206</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>900</v>
+      </c>
+      <c r="B20" s="18">
+        <v>765496720.14999986</v>
+      </c>
+      <c r="C20" s="19">
+        <v>2327.5226051807399</v>
+      </c>
+      <c r="D20" s="20">
+        <v>949020</v>
+      </c>
+      <c r="E20" s="20">
+        <v>3222</v>
+      </c>
+      <c r="F20" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>960</v>
+      </c>
+      <c r="B21" s="18">
+        <v>761855903.44999993</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1418.39797759056</v>
+      </c>
+      <c r="D21" s="20">
+        <v>1030620</v>
+      </c>
+      <c r="E21" s="20">
+        <v>3278</v>
+      </c>
+      <c r="F21" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <v>1020</v>
+      </c>
+      <c r="B22" s="18">
+        <v>771293771.75</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1570.09348583221</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1133640</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3273</v>
+      </c>
+      <c r="F22" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>1080</v>
+      </c>
+      <c r="B23" s="18">
+        <v>760474295.69999993</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1915.82242345809</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1339080</v>
+      </c>
+      <c r="E23" s="20">
+        <v>3154</v>
+      </c>
+      <c r="F23" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="O23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>1140</v>
+      </c>
+      <c r="B24" s="18">
+        <v>755415757.89999998</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1754.6635608673</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1404240</v>
+      </c>
+      <c r="E24" s="20">
+        <v>3036</v>
+      </c>
+      <c r="F24" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>1200</v>
+      </c>
+      <c r="B25" s="18">
+        <v>755560323.79999995</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1860.89164590835</v>
+      </c>
+      <c r="D25" s="20">
+        <v>1494780</v>
+      </c>
+      <c r="E25" s="20">
+        <v>3049</v>
+      </c>
+      <c r="F25" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22">
+        <v>1260</v>
+      </c>
+      <c r="B26" s="23">
+        <v>753075064.05000007</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1987.83652424812</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1641900</v>
+      </c>
+      <c r="E26" s="25">
+        <v>3119</v>
+      </c>
+      <c r="F26" s="26">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>900</v>
+      </c>
+      <c r="B29" s="18">
+        <v>738993540.19999981</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1340.6608805656399</v>
+      </c>
+      <c r="D29" s="20">
+        <v>935580</v>
+      </c>
+      <c r="E29" s="20">
+        <v>3068</v>
+      </c>
+      <c r="F29" s="21">
+        <v>117</v>
+      </c>
+      <c r="G29" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
+        <v>960</v>
+      </c>
+      <c r="B30" s="18">
+        <v>736598450.04999995</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1413.70767664909</v>
+      </c>
+      <c r="D30" s="20">
+        <v>1013640</v>
+      </c>
+      <c r="E30" s="20">
+        <v>3126</v>
+      </c>
+      <c r="F30" s="21">
+        <v>121</v>
+      </c>
+      <c r="G30" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
+        <v>1020</v>
+      </c>
+      <c r="B31" s="18">
+        <v>744801438.89999998</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1555.43464684486</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1118700</v>
+      </c>
+      <c r="E31" s="20">
+        <v>3112</v>
+      </c>
+      <c r="F31" s="21">
+        <v>117</v>
+      </c>
+      <c r="G31" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
+        <v>1080</v>
+      </c>
+      <c r="B32" s="18">
+        <v>724191026.04999995</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1788.0287466049101</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1340040</v>
+      </c>
+      <c r="E32" s="20">
+        <v>2962</v>
+      </c>
+      <c r="F32" s="21">
+        <v>117</v>
+      </c>
+      <c r="G32" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="L32" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
+        <v>1140</v>
+      </c>
+      <c r="B33" s="18">
+        <v>732131821.04999995</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1978.32648324966</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1393440</v>
+      </c>
+      <c r="E33" s="20">
+        <v>2921</v>
+      </c>
+      <c r="F33" s="21">
+        <v>113</v>
+      </c>
+      <c r="G33" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+      <c r="L33" s="28"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>1200</v>
+      </c>
+      <c r="B34" s="18">
+        <v>734974438.85000002</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1721.3144404888101</v>
+      </c>
+      <c r="D34" s="20">
+        <v>1497600</v>
+      </c>
+      <c r="E34" s="20">
+        <v>2913</v>
+      </c>
+      <c r="F34" s="21">
+        <v>123</v>
+      </c>
+      <c r="G34" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8"/>
+      <c r="L34" s="28"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22">
+        <v>1260</v>
+      </c>
+      <c r="B35" s="23">
+        <v>733709101.70000005</v>
+      </c>
+      <c r="C35" s="24">
+        <v>2046.73703384399</v>
+      </c>
+      <c r="D35" s="25">
+        <v>1624020</v>
+      </c>
+      <c r="E35" s="25">
+        <v>2989</v>
+      </c>
+      <c r="F35" s="26">
+        <v>117</v>
+      </c>
+      <c r="G35" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="L35" s="28"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L36" s="28"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L37" s="28"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L38" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>